--- a/Data/Temp/Yearly-Report-2021-DE456232.xlsx
+++ b/Data/Temp/Yearly-Report-2021-DE456232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <x:si>
     <x:t>172818</x:t>
   </x:si>
@@ -55,12 +55,27 @@
     <x:t>77500.8</x:t>
   </x:si>
   <x:si>
+    <x:t>857700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58966.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353800</x:t>
+  </x:si>
+  <x:si>
     <x:t>197993</x:t>
   </x:si>
   <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-09-12</x:t>
   </x:si>
   <x:si>
@@ -74,39 +89,6 @@
   </x:si>
   <x:si>
     <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>936027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>288581</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57716.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>346297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>571895</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58634.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>351805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
   </x:si>
   <x:si>
     <x:t>185926</x:t>
@@ -565,27 +547,27 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>6</x:v>
@@ -593,140 +575,140 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
